--- a/Multicriterio/AHP_multicriterio.xlsx
+++ b/Multicriterio/AHP_multicriterio.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5777bf2bb41767b9/Documentos/personal/Universidad/Septimo_semestre/Opti_multiobjective/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5777bf2bb41767b9/Documentos/personal/Universidad/Septimo_semestre/Opti_multiobjective/Multicriterio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{BF270C6E-3F7C-4BE7-B751-85CED36C9158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66D381C2-9190-4084-9658-15AE10F88BF9}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{BF270C6E-3F7C-4BE7-B751-85CED36C9158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7F7262-0F31-4B8E-9891-F0828776972B}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{2951E21E-E0E6-4530-8366-1B858D5C6F84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2951E21E-E0E6-4530-8366-1B858D5C6F84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="3" r:id="rId2"/>
+    <sheet name="AHP" sheetId="4" r:id="rId3"/>
+    <sheet name="AHP_color" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="36">
   <si>
     <t>Cell</t>
   </si>
@@ -154,14 +158,27 @@
   </si>
   <si>
     <t>Ponderación</t>
+  </si>
+  <si>
+    <t>A^2</t>
+  </si>
+  <si>
+    <t>A^3</t>
+  </si>
+  <si>
+    <t>suma filas</t>
+  </si>
+  <si>
+    <t>normalizado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -206,12 +223,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,6 +297,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85D739-E031-40A4-BC5E-6BFB89238327}">
   <dimension ref="B1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView zoomScale="124" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,9 +627,6 @@
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2198,7 @@
         <v>0.2</v>
       </c>
       <c r="G68" s="2">
-        <v>0.19579370700413465</v>
+        <v>0.19579370700413501</v>
       </c>
       <c r="H68" s="1">
         <f>SUMPRODUCT(C68:G68,$C$74:$G$74)</f>
@@ -2334,4 +2355,783 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1542A-7FE9-4616-B68F-EF1A49D368BA}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>0.65</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>512</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144163D2-EA83-4491-B8BD-32EA4FB857FF}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>1/C2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>1/D2</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f>1/D3</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>1/E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <f>1/E3</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <f>1/E4</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>1/F2</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C6">
+        <f>1/F3</f>
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <f>1/F4</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E6">
+        <f>1/F5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845DD930-EEE1-4EC3-A9A5-C8D77884C1FC}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>1/C2</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <f>1/D2</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>1/D3</f>
+        <v>0.125</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f>1/E2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5">
+        <f>1/E3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5">
+        <f>1/E4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B5D02D-D792-4D5C-8D64-304B4529C586}">
+  <dimension ref="B3:J24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.33</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>0.33</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" cm="1">
+        <f t="array" ref="B11:F15">MMULT(B3:F7,B3:F7)</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C11">
+        <v>13.15</v>
+      </c>
+      <c r="D11">
+        <v>21.5</v>
+      </c>
+      <c r="E11">
+        <v>15.25</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <f>SUM(B11:F11)</f>
+        <v>95.88</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11/SUM(_xlfn.ANCHORARRAY($B$11))</f>
+        <v>0.47367703407431416</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="C12">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D12">
+        <v>8.15</v>
+      </c>
+      <c r="E12">
+        <v>5.74</v>
+      </c>
+      <c r="F12">
+        <v>15.65</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G15" si="0">SUM(B12:F12)</f>
+        <v>36.51</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12/SUM(_xlfn.ANCHORARRAY($B$11))</f>
+        <v>0.18037076047197759</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="C13">
+        <v>3.2600000000000002</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3.6</v>
+      </c>
+      <c r="F13">
+        <v>10.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>23.655000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <f>G13/SUM(_xlfn.ANCHORARRAY($B$11))</f>
+        <v>0.11686306050300274</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="C14">
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="D14">
+        <v>7.65</v>
+      </c>
+      <c r="E14">
+        <v>4.99</v>
+      </c>
+      <c r="F14">
+        <v>14.65</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>34.090000000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14/SUM(_xlfn.ANCHORARRAY($B$11))</f>
+        <v>0.16841520746342692</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.7600000000000002</v>
+      </c>
+      <c r="D15">
+        <v>2.91</v>
+      </c>
+      <c r="E15">
+        <v>1.9300000000000002</v>
+      </c>
+      <c r="F15">
+        <v>4.99</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>12.281400000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15/SUM(_xlfn.ANCHORARRAY($B$11))</f>
+        <v>6.0673937487278715E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="5">
+        <f>SUM(H11:H15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" cm="1">
+        <f t="array" ref="B19:F23">MMULT(B11:F15,B11:F15)</f>
+        <v>137.50630000000001</v>
+      </c>
+      <c r="C19">
+        <v>346.57650000000007</v>
+      </c>
+      <c r="D19">
+        <v>557.71500000000003</v>
+      </c>
+      <c r="E19">
+        <v>384.05349999999999</v>
+      </c>
+      <c r="F19">
+        <v>1063.73</v>
+      </c>
+      <c r="G19">
+        <f>SUM(B19:F19)</f>
+        <v>2489.5812999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <f>G19/SUM(_xlfn.ANCHORARRAY($B$19))</f>
+        <v>0.47152218444789851</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>52.617660000000008</v>
+      </c>
+      <c r="C20">
+        <v>132.69130000000001</v>
+      </c>
+      <c r="D20">
+        <v>213.57450000000003</v>
+      </c>
+      <c r="E20">
+        <v>147.11980000000003</v>
+      </c>
+      <c r="F20">
+        <v>407.28650000000005</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G23" si="1">SUM(B20:F20)</f>
+        <v>953.28976000000011</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:H23" si="2">G20/SUM(_xlfn.ANCHORARRAY($B$19))</f>
+        <v>0.18055135216793802</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20:J24">MMULT(B3:F7,H19:H23)</f>
+        <v>2.4128741691772952</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>33.835200000000007</v>
+      </c>
+      <c r="C21">
+        <v>85.360050000000015</v>
+      </c>
+      <c r="D21">
+        <v>137.50650000000002</v>
+      </c>
+      <c r="E21">
+        <v>94.690150000000003</v>
+      </c>
+      <c r="F21">
+        <v>261.74900000000002</v>
+      </c>
+      <c r="G21">
+        <f>SUM(B21:F21)</f>
+        <v>613.1409000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.11612777479584642</v>
+      </c>
+      <c r="J21">
+        <v>0.92387089969715419</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>49.447960000000009</v>
+      </c>
+      <c r="C22">
+        <v>124.84720000000003</v>
+      </c>
+      <c r="D22">
+        <v>201.04150000000004</v>
+      </c>
+      <c r="E22">
+        <v>138.67150000000004</v>
+      </c>
+      <c r="F22">
+        <v>383.39850000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>897.4066600000001</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.16996719434761687</v>
+      </c>
+      <c r="J22">
+        <v>0.59433807059841204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>18.004808000000001</v>
+      </c>
+      <c r="C23">
+        <v>45.409010000000009</v>
+      </c>
+      <c r="D23">
+        <v>73.044499999999999</v>
+      </c>
+      <c r="E23">
+        <v>50.383650000000003</v>
+      </c>
+      <c r="F23">
+        <v>139.62100000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>326.46296800000005</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1831494240700002E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.86957461914200773</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="5">
+        <f>SUM(H19:H23)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J24">
+        <v>0.3162735633305267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>